--- a/src/main/java/com/api/data/controller.xlsx
+++ b/src/main/java/com/api/data/controller.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -38,13 +38,19 @@
     <t xml:space="preserve">TC001</t>
   </si>
   <si>
-    <t xml:space="preserve">POST a tweet</t>
+    <t xml:space="preserve">POST statuses/update</t>
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
     <t xml:space="preserve">api_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST statuses/destroy/:id</t>
   </si>
 </sst>
 </file>
@@ -212,13 +218,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.51"/>
@@ -256,6 +262,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -278,7 +298,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/main/java/com/api/data/controller.xlsx
+++ b/src/main/java/com/api/data/controller.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t xml:space="preserve">POST statuses/destroy/:id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET statuses/show/:id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET statuses/lookup</t>
   </si>
 </sst>
 </file>
@@ -132,13 +144,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -218,13 +234,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.51"/>
@@ -276,6 +292,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -298,7 +342,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
